--- a/extend2/data/simulation.xlsx
+++ b/extend2/data/simulation.xlsx
@@ -471,7 +471,7 @@
         <v>4.951000308923848</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>1.282168870819029</v>
       </c>
       <c r="B36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -759,7 +759,7 @@
         <v>3.740253520526143</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -799,7 +799,7 @@
         <v>3.854157840244422</v>
       </c>
       <c r="B45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -815,7 +815,7 @@
         <v>1.713584404992732</v>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -863,7 +863,7 @@
         <v>1.889638891420837</v>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -1047,7 +1047,7 @@
         <v>1.474592607202881</v>
       </c>
       <c r="B76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -1671,7 +1671,7 @@
         <v>3.923240068823186</v>
       </c>
       <c r="B154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
@@ -3589,7 +3589,7 @@
         <v>6.75323188375508</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -4917,7 +4917,7 @@
         <v>6.285280289629497</v>
       </c>
       <c r="B177" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178">
@@ -4925,7 +4925,7 @@
         <v>6.633342222403614</v>
       </c>
       <c r="B178" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179">
@@ -4933,7 +4933,7 @@
         <v>6.931253425630715</v>
       </c>
       <c r="B179" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180">
@@ -5412,7 +5412,7 @@
         <v>6.660971606048481</v>
       </c>
       <c r="B35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -5420,7 +5420,7 @@
         <v>6.663058107371735</v>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -5564,7 +5564,7 @@
         <v>6.660353516189086</v>
       </c>
       <c r="B54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -7363,7 +7363,7 @@
         <v>4.346443082307655</v>
       </c>
       <c r="B125" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126">
